--- a/Service/bin/Debug/saves/PersonnelDepartment.xlsx
+++ b/Service/bin/Debug/saves/PersonnelDepartment.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\source\repos\Service\Service\bin\Debug\saves\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA88FE0-4F50-4B64-8B03-09686DCC4BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Код сотрудника</t>
   </si>
@@ -62,92 +56,17 @@
   </si>
   <si>
     <t>Менеджер</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Фамилия 2</t>
-  </si>
-  <si>
-    <t>Имя 2 Отчество 2</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>7015622129</t>
-  </si>
-  <si>
-    <t>Исполнитель заказов</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Фамилия 3</t>
-  </si>
-  <si>
-    <t>Имя 3 Отчество 3</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>7015622130</t>
-  </si>
-  <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Фамилия 4</t>
-  </si>
-  <si>
-    <t>Имя 4 Отчество 4</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>7015129528</t>
-  </si>
-  <si>
-    <t>Сотрудник отдела кадров</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Фамилия 5</t>
-  </si>
-  <si>
-    <t>Имя 5 Отчество 5</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>7015622131</t>
-  </si>
-  <si>
-    <t>Администратор базы данных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -164,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,52 +125,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -264,9 +137,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -276,28 +147,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,25 +462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.28125" customWidth="1"/>
+    <col min="2" max="2" width="10.85156" customWidth="1"/>
+    <col min="3" max="3" width="16.57422" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.710938" customWidth="1"/>
+    <col min="6" max="6" width="23.42188" customWidth="1"/>
+    <col min="7" max="7" width="25.28125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -663,100 +525,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </worksheet>
 </file>